--- a/Planeacion cronograma proyecto.xlsx
+++ b/Planeacion cronograma proyecto.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24334"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dinac\Documents\Daniel Chaves\FinAIcer\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\salas\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FEEE1AB-4E3F-40C8-9D22-2C7B7BAF0543}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5F8CA72-33DC-4F8A-8D58-B6DF3C6662F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7545" yWindow="1290" windowWidth="21600" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Example - Project Plan Template" sheetId="1" r:id="rId1"/>
@@ -30,9 +30,10 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
+    </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -1211,98 +1212,6 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="10"/>
-        <color rgb="FF000000"/>
-        <name val="Century Gothic"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="mm/dd"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="1"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0" tint="-0.249977111117893"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.249977111117893"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.249977111117893"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.249977111117893"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
         <color theme="1"/>
         <name val="Century Gothic"/>
         <family val="1"/>
@@ -1513,6 +1422,42 @@
         </right>
         <top/>
         <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Century Gothic"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="mm/dd"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="1"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0" tint="-0.249977111117893"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.249977111117893"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.249977111117893"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.249977111117893"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -1906,6 +1851,62 @@
         <bottom/>
       </border>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
   <colors>
@@ -2003,7 +2004,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-CO"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -2232,16 +2233,16 @@
                   <c:v>45908</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>45909</c:v>
+                  <c:v>45914</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>45910</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>45910</c:v>
+                  <c:v>45914</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>45912</c:v>
+                  <c:v>45914</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>45914</c:v>
@@ -2271,13 +2272,13 @@
                   <c:v>45925</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>45928</c:v>
+                  <c:v>45930</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>45930</c:v>
+                  <c:v>45933</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>45930</c:v>
+                  <c:v>45933</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45933</c:v>
@@ -3459,6 +3460,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000005D-7770-49EC-8435-114DDA9D38C9}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -3487,7 +3493,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-CO"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -3710,19 +3716,19 @@
                   <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>4</c:v>
@@ -3731,16 +3737,16 @@
                   <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-3</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>10</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>4</c:v>
@@ -3755,13 +3761,13 @@
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>7</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>13</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>9</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>8</c:v>
@@ -3890,7 +3896,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1613236671"/>
@@ -3951,7 +3957,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1613230911"/>
@@ -3969,7 +3975,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -3977,6 +3982,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -4000,7 +4006,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4598,18 +4604,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{72A90695-F890-4B18-9EB8-038D78A53CA4}" name="Crono" displayName="Crono" ref="B8:I56" headerRowCount="0" totalsRowShown="0" headerRowDxfId="25" tableBorderDxfId="24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{72A90695-F890-4B18-9EB8-038D78A53CA4}" name="Crono" displayName="Crono" ref="B8:I56" headerRowCount="0" totalsRowShown="0" headerRowDxfId="17" tableBorderDxfId="16">
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{8A2879CD-2E0E-4ADD-8465-1948731C7191}" name="WBS No." headerRowDxfId="23" dataDxfId="22"/>
-    <tableColumn id="2" xr3:uid="{F7BAF891-321F-4DFD-B070-73E28686346D}" name="Nombre de la tarea" headerRowDxfId="21" dataDxfId="20"/>
-    <tableColumn id="3" xr3:uid="{D0757C45-5460-4514-BEB9-DCF8CD9DACD5}" name="Estado" headerRowDxfId="19" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{A26245A9-C98A-4E9C-AB89-F3E7AA62372E}" name="Asignado a" headerRowDxfId="17" dataDxfId="16"/>
-    <tableColumn id="5" xr3:uid="{D46B36BE-655B-4C51-AF19-EAD9CA79CC22}" name="Fecha  inicio" headerRowDxfId="15" dataDxfId="0"/>
-    <tableColumn id="6" xr3:uid="{5E8BDF52-6EBC-4BF5-8216-64AA74F389F5}" name="Fecha fin" headerRowDxfId="14" dataDxfId="13"/>
-    <tableColumn id="7" xr3:uid="{93B9F29B-ED8B-4033-81F2-147234BB7254}" name="Duración (en días)" headerRowDxfId="12" dataDxfId="11">
+    <tableColumn id="1" xr3:uid="{8A2879CD-2E0E-4ADD-8465-1948731C7191}" name="WBS No." headerRowDxfId="15" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{F7BAF891-321F-4DFD-B070-73E28686346D}" name="Nombre de la tarea" headerRowDxfId="13" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{D0757C45-5460-4514-BEB9-DCF8CD9DACD5}" name="Estado" headerRowDxfId="11" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{A26245A9-C98A-4E9C-AB89-F3E7AA62372E}" name="Asignado a" headerRowDxfId="9" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{D46B36BE-655B-4C51-AF19-EAD9CA79CC22}" name="Fecha  inicio" headerRowDxfId="7" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{5E8BDF52-6EBC-4BF5-8216-64AA74F389F5}" name="Fecha fin" headerRowDxfId="5" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{93B9F29B-ED8B-4033-81F2-147234BB7254}" name="Duración (en días)" headerRowDxfId="3" dataDxfId="2">
       <calculatedColumnFormula>IF(F8=0,0,G8-F8)+1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{0F570902-E2C4-4DC6-98BC-5B93FFABA4B1}" name="Comentarios" headerRowDxfId="10" dataDxfId="9"/>
+    <tableColumn id="8" xr3:uid="{0F570902-E2C4-4DC6-98BC-5B93FFABA4B1}" name="Comentarios" headerRowDxfId="1" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -4943,9 +4949,9 @@
   </sheetPr>
   <dimension ref="B1:K64"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13.5" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -4954,7 +4960,7 @@
     <col min="2" max="2" width="11.75" style="4" customWidth="1"/>
     <col min="3" max="3" width="57" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="20.875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="20.875" style="4" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="16.125" style="4" customWidth="1"/>
     <col min="7" max="7" width="15.375" style="4" customWidth="1"/>
     <col min="8" max="8" width="21.375" style="4" customWidth="1"/>
@@ -5354,18 +5360,18 @@
         <v>23</v>
       </c>
       <c r="D18" s="64" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E18" s="68"/>
       <c r="F18" s="66">
         <v>45908</v>
       </c>
       <c r="G18" s="66">
-        <v>45909</v>
+        <v>45914</v>
       </c>
       <c r="H18" s="39">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I18" s="82"/>
     </row>
@@ -5377,7 +5383,7 @@
         <v>25</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E19" s="13"/>
       <c r="F19" s="35">
@@ -5400,18 +5406,18 @@
         <v>27</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E20" s="13"/>
       <c r="F20" s="35">
-        <v>45909</v>
+        <v>45914</v>
       </c>
       <c r="G20" s="35">
-        <v>45914</v>
+        <v>45915</v>
       </c>
       <c r="H20" s="39">
         <f>IF(F20=0,0,G20-F20)+1</f>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I20" s="83"/>
     </row>
@@ -5423,7 +5429,7 @@
         <v>28</v>
       </c>
       <c r="D21" s="64" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E21" s="68"/>
       <c r="F21" s="66">
@@ -5446,18 +5452,18 @@
         <v>30</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E22" s="13"/>
       <c r="F22" s="35">
-        <v>45910</v>
+        <v>45914</v>
       </c>
       <c r="G22" s="35">
-        <v>45914</v>
+        <v>45916</v>
       </c>
       <c r="H22" s="39">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I22" s="83"/>
     </row>
@@ -5469,14 +5475,14 @@
         <v>32</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E23" s="13"/>
       <c r="F23" s="35">
-        <v>45912</v>
+        <v>45914</v>
       </c>
       <c r="G23" s="35">
-        <v>45915</v>
+        <v>45917</v>
       </c>
       <c r="H23" s="39">
         <f t="shared" si="0"/>
@@ -5513,18 +5519,18 @@
         <v>34</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E25" s="9"/>
       <c r="F25" s="33">
         <v>45914</v>
       </c>
       <c r="G25" s="34">
-        <v>45908</v>
+        <v>45919</v>
       </c>
       <c r="H25" s="40">
         <f t="shared" si="0"/>
-        <v>-5</v>
+        <v>6</v>
       </c>
       <c r="I25" s="80"/>
     </row>
@@ -5536,18 +5542,18 @@
         <v>22</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E26" s="9"/>
       <c r="F26" s="33">
         <v>45915</v>
       </c>
       <c r="G26" s="34">
-        <v>45911</v>
+        <v>45919</v>
       </c>
       <c r="H26" s="40">
         <f t="shared" si="0"/>
-        <v>-3</v>
+        <v>5</v>
       </c>
       <c r="I26" s="80"/>
     </row>
@@ -5559,18 +5565,18 @@
         <v>35</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E27" s="9"/>
       <c r="F27" s="33">
         <v>45917</v>
       </c>
       <c r="G27" s="34">
-        <v>45916</v>
+        <v>45929</v>
       </c>
       <c r="H27" s="40">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="I27" s="80"/>
     </row>
@@ -5582,18 +5588,18 @@
         <v>36</v>
       </c>
       <c r="D28" s="61" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E28" s="59"/>
       <c r="F28" s="62">
         <v>45919</v>
       </c>
       <c r="G28" s="63">
-        <v>45928</v>
+        <v>45929</v>
       </c>
       <c r="H28" s="40">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I28" s="79"/>
     </row>
@@ -5605,7 +5611,7 @@
         <v>25</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E29" s="10"/>
       <c r="F29" s="33">
@@ -5628,7 +5634,7 @@
         <v>27</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E30" s="17"/>
       <c r="F30" s="35">
@@ -5651,7 +5657,7 @@
         <v>39</v>
       </c>
       <c r="D31" s="64" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E31" s="65"/>
       <c r="F31" s="66">
@@ -5674,7 +5680,7 @@
         <v>30</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E32" s="17"/>
       <c r="F32" s="35">
@@ -5701,14 +5707,14 @@
       </c>
       <c r="E33" s="17"/>
       <c r="F33" s="35">
-        <v>45928</v>
+        <v>45930</v>
       </c>
       <c r="G33" s="36">
         <v>45934</v>
       </c>
       <c r="H33" s="41">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I33" s="83"/>
     </row>
@@ -5722,14 +5728,14 @@
       <c r="D34" s="54"/>
       <c r="E34" s="55"/>
       <c r="F34" s="56">
-        <v>45930</v>
+        <v>45933</v>
       </c>
       <c r="G34" s="56">
         <v>45942</v>
       </c>
       <c r="H34" s="57">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I34" s="85"/>
     </row>
@@ -5745,14 +5751,14 @@
       </c>
       <c r="E35" s="10"/>
       <c r="F35" s="33">
-        <v>45930</v>
+        <v>45933</v>
       </c>
       <c r="G35" s="34">
         <v>45938</v>
       </c>
       <c r="H35" s="99">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="I35" s="80"/>
     </row>
@@ -6312,30 +6318,30 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="D8:D62">
-    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="On Hold">
+    <cfRule type="containsText" dxfId="25" priority="1" operator="containsText" text="On Hold">
       <formula>NOT(ISERROR(SEARCH("On Hold",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="24" priority="2" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="23" priority="3" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="4" operator="containsText" text="Not Started">
+    <cfRule type="containsText" dxfId="22" priority="4" operator="containsText" text="Not Started">
       <formula>NOT(ISERROR(SEARCH("Not Started",D8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8:K12">
-    <cfRule type="containsText" dxfId="8" priority="13" stopIfTrue="1" operator="containsText" text="On Hold">
+    <cfRule type="containsText" dxfId="21" priority="13" stopIfTrue="1" operator="containsText" text="On Hold">
       <formula>NOT(ISERROR(SEARCH("On Hold",K8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="14" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="20" priority="14" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",K8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="15" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="19" priority="15" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",K8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="16" operator="containsText" text="Not Started">
+    <cfRule type="containsText" dxfId="18" priority="16" operator="containsText" text="Not Started">
       <formula>NOT(ISERROR(SEARCH("Not Started",K8)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Planeacion cronograma proyecto.xlsx
+++ b/Planeacion cronograma proyecto.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\salas\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5F8CA72-33DC-4F8A-8D58-B6DF3C6662F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6305A889-2A45-4F69-B80F-31395094F8AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7545" yWindow="1290" windowWidth="21600" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1155" yWindow="1050" windowWidth="12495" windowHeight="14685" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Example - Project Plan Template" sheetId="1" r:id="rId1"/>
@@ -3734,7 +3734,7 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>21</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>6</c:v>
@@ -3755,13 +3755,13 @@
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>10</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="24">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="25">
                   <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>10</c:v>
@@ -4950,8 +4950,8 @@
   <dimension ref="B1:K64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C37" sqref="C37"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13.5" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -5503,11 +5503,11 @@
         <v>45914</v>
       </c>
       <c r="G24" s="26">
-        <v>45934</v>
+        <v>45936</v>
       </c>
       <c r="H24" s="27">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I24" s="84"/>
     </row>
@@ -5565,7 +5565,7 @@
         <v>35</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E27" s="9"/>
       <c r="F27" s="33">
@@ -5588,7 +5588,7 @@
         <v>36</v>
       </c>
       <c r="D28" s="61" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E28" s="59"/>
       <c r="F28" s="62">
@@ -5611,7 +5611,7 @@
         <v>25</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E29" s="10"/>
       <c r="F29" s="33">
@@ -5634,7 +5634,7 @@
         <v>27</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E30" s="17"/>
       <c r="F30" s="35">
@@ -5664,11 +5664,11 @@
         <v>45925</v>
       </c>
       <c r="G31" s="67">
-        <v>45934</v>
+        <v>45936</v>
       </c>
       <c r="H31" s="41">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I31" s="82"/>
     </row>
@@ -5687,11 +5687,11 @@
         <v>45925</v>
       </c>
       <c r="G32" s="36">
-        <v>45931</v>
+        <v>45936</v>
       </c>
       <c r="H32" s="41">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="I32" s="83"/>
     </row>
@@ -5703,18 +5703,18 @@
         <v>32</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E33" s="17"/>
       <c r="F33" s="35">
         <v>45930</v>
       </c>
       <c r="G33" s="36">
-        <v>45934</v>
+        <v>45936</v>
       </c>
       <c r="H33" s="41">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I33" s="83"/>
     </row>
@@ -5747,7 +5747,7 @@
         <v>43</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E35" s="10"/>
       <c r="F35" s="33">
@@ -5770,7 +5770,7 @@
         <v>44</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E36" s="10"/>
       <c r="F36" s="33">

--- a/Planeacion cronograma proyecto.xlsx
+++ b/Planeacion cronograma proyecto.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\salas\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6305A889-2A45-4F69-B80F-31395094F8AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F32D1B25-C821-45C3-B341-15E8833B3EC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1155" yWindow="1050" windowWidth="12495" windowHeight="14685" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Example - Project Plan Template" sheetId="1" r:id="rId1"/>
@@ -4949,9 +4949,9 @@
   </sheetPr>
   <dimension ref="B1:K64"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D37" sqref="D37"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13.5" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -5657,7 +5657,7 @@
         <v>39</v>
       </c>
       <c r="D31" s="64" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E31" s="65"/>
       <c r="F31" s="66">
@@ -5680,7 +5680,7 @@
         <v>30</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E32" s="17"/>
       <c r="F32" s="35">
@@ -5703,7 +5703,7 @@
         <v>32</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E33" s="17"/>
       <c r="F33" s="35">
@@ -5747,7 +5747,7 @@
         <v>43</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E35" s="10"/>
       <c r="F35" s="33">
@@ -5793,7 +5793,7 @@
         <v>45</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E37" s="10"/>
       <c r="F37" s="33">
@@ -5837,7 +5837,7 @@
         <v>47</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E39" s="10"/>
       <c r="F39" s="33">
@@ -5860,7 +5860,7 @@
         <v>48</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E40" s="10"/>
       <c r="F40" s="33">
@@ -5904,7 +5904,7 @@
         <v>50</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E42" s="10"/>
       <c r="F42" s="141">
@@ -5927,7 +5927,7 @@
         <v>51</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E43" s="10"/>
       <c r="F43" s="33">
@@ -5950,7 +5950,7 @@
         <v>52</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E44" s="10"/>
       <c r="F44" s="33">

--- a/Planeacion cronograma proyecto.xlsx
+++ b/Planeacion cronograma proyecto.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\salas\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F32D1B25-C821-45C3-B341-15E8833B3EC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB5324D7-45E5-41A7-9552-07F639992D0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="105">
   <si>
     <t>Nombre del Proyecto</t>
   </si>
@@ -265,6 +265,99 @@
   </si>
   <si>
     <t>Diseño UI/UX (mockups y prototipos)</t>
+  </si>
+  <si>
+    <t>Elaboracion del Acta de inicio</t>
+  </si>
+  <si>
+    <t>Asignacion y organización de miembros del equipo de trabajo</t>
+  </si>
+  <si>
+    <t>Asignacion de actividades dependiendo del rol del miembro</t>
+  </si>
+  <si>
+    <t>Realizacion de Matriz Raci y investigacion de interesados</t>
+  </si>
+  <si>
+    <t>Definicion claramente los requisitos desde el principio para evitar malentendidos.</t>
+  </si>
+  <si>
+    <t>Se obtuvo información clave para definir necesidades reales del usuario.</t>
+  </si>
+  <si>
+    <t>Se clasificaron correctamente los requerimientos funcionales y no funcionales.</t>
+  </si>
+  <si>
+    <t>Se crearon diseños claros y usables según los objetivos del proyecto.</t>
+  </si>
+  <si>
+    <t>La interfaz cumple con el diseño propuesto y mantiene coherencia visual.</t>
+  </si>
+  <si>
+    <t>Se evaluaron correctamente los datos y se identificaron puntos de mejora.</t>
+  </si>
+  <si>
+    <t>Se realizaron cambios oportunos para optimizar el desarrollo.</t>
+  </si>
+  <si>
+    <t>Se definió una estructura sólida y escalable para el sistema.</t>
+  </si>
+  <si>
+    <t>Se ejecutó la carga de datos inicial de manera exitosa y sin errores.</t>
+  </si>
+  <si>
+    <t>Se validaron las funcionalidades principales y su correcto desempeño.</t>
+  </si>
+  <si>
+    <t>Se recopilaron datos relevantes para definir el alcance del proyecto.</t>
+  </si>
+  <si>
+    <t>Se identificaron y documentaron correctamente los requerimientos funcionales y no funcionales.</t>
+  </si>
+  <si>
+    <t>Se preparó el entorno de desarrollo y la base de datos de forma satisfactoria.</t>
+  </si>
+  <si>
+    <t>Se implementaron los módulos con las funcionalidades previstas.</t>
+  </si>
+  <si>
+    <t>Se evaluaron los resultados obtenidos y se detectaron oportunidades de mejora.</t>
+  </si>
+  <si>
+    <t>Se aplicaron cambios pertinentes para optimizar el rendimiento del sistema.</t>
+  </si>
+  <si>
+    <t>Se realizó la carga de datos inicial sin inconvenientes.</t>
+  </si>
+  <si>
+    <t>Se evaluó el desempeño del modelo mediante métricas de precisión y confiabilidad.</t>
+  </si>
+  <si>
+    <t>En progreso el modelo IA con el backend  eficiente.</t>
+  </si>
+  <si>
+    <t>En progreso de implementacion mecanismos de acceso seguro y protección de datos.</t>
+  </si>
+  <si>
+    <t>Se verificó el correcto funcionamiento de los componentes desarrollados.</t>
+  </si>
+  <si>
+    <t>Se instruyo el modelo con datos representativos para obtener una clasificación base.</t>
+  </si>
+  <si>
+    <t>Se desarrollaron visualizaciones interactivas que facilitan el análisis de datos.</t>
+  </si>
+  <si>
+    <t>Em progreso de configuraron notificaciones automáticas para mejorar el control de gastos.</t>
+  </si>
+  <si>
+    <t>En verificaicon del correcto funcionamiento de los módulos de forma individual y conjunta.</t>
+  </si>
+  <si>
+    <t>En realizacion de constantes mejoras visuales y de experiencia de usuario.</t>
+  </si>
+  <si>
+    <t>En realizacion ajustes para mejorar la velocidad y eficiencia del sistema.</t>
   </si>
 </sst>
 </file>
@@ -275,7 +368,7 @@
     <numFmt numFmtId="164" formatCode="m/d;@"/>
     <numFmt numFmtId="165" formatCode="mm/dd"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -394,6 +487,18 @@
       <color rgb="FF001033"/>
       <name val="Century Gothic"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Century Gothic"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Century Gothic"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="27">
@@ -554,7 +659,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -719,19 +824,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </top>
-      <bottom style="medium">
-        <color theme="0" tint="-0.249977111117893"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color theme="0" tint="-0.249977111117893"/>
@@ -762,7 +854,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="143">
+  <cellXfs count="142">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1007,19 +1099,10 @@
     <xf numFmtId="0" fontId="10" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1031,7 +1114,7 @@
     <xf numFmtId="164" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1109,9 +1192,6 @@
     <xf numFmtId="1" fontId="11" fillId="19" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="1" fontId="4" fillId="20" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1189,6 +1269,13 @@
     </xf>
     <xf numFmtId="165" fontId="11" fillId="26" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -4949,9 +5036,9 @@
   </sheetPr>
   <dimension ref="B1:K64"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D44" sqref="D44"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I47" sqref="I47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13.5" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -4964,7 +5051,7 @@
     <col min="6" max="6" width="16.125" style="4" customWidth="1"/>
     <col min="7" max="7" width="15.375" style="4" customWidth="1"/>
     <col min="8" max="8" width="21.375" style="4" customWidth="1"/>
-    <col min="9" max="9" width="50.875" style="4" customWidth="1"/>
+    <col min="9" max="9" width="80.125" style="4" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="3.375" style="4" customWidth="1"/>
     <col min="11" max="11" width="12.875" style="4" customWidth="1"/>
     <col min="12" max="17" width="11" style="4"/>
@@ -5007,7 +5094,7 @@
         <v>3</v>
       </c>
       <c r="D3" s="1"/>
-      <c r="E3" s="135">
+      <c r="E3" s="131">
         <v>45878</v>
       </c>
       <c r="F3" s="1"/>
@@ -5043,7 +5130,7 @@
         <v>8</v>
       </c>
       <c r="D5" s="1"/>
-      <c r="E5" s="135">
+      <c r="E5" s="131">
         <v>45976</v>
       </c>
       <c r="F5" s="1"/>
@@ -5069,28 +5156,28 @@
       <c r="K6" s="1"/>
     </row>
     <row r="7" spans="2:11" s="8" customFormat="1" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="136" t="s">
+      <c r="B7" s="132" t="s">
         <v>65</v>
       </c>
-      <c r="C7" s="136" t="s">
+      <c r="C7" s="132" t="s">
         <v>66</v>
       </c>
-      <c r="D7" s="136" t="s">
+      <c r="D7" s="132" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="136" t="s">
+      <c r="E7" s="132" t="s">
         <v>67</v>
       </c>
-      <c r="F7" s="137" t="s">
+      <c r="F7" s="133" t="s">
         <v>68</v>
       </c>
-      <c r="G7" s="138" t="s">
+      <c r="G7" s="134" t="s">
         <v>69</v>
       </c>
-      <c r="H7" s="136" t="s">
+      <c r="H7" s="132" t="s">
         <v>70</v>
       </c>
-      <c r="I7" s="136" t="s">
+      <c r="I7" s="132" t="s">
         <v>71</v>
       </c>
       <c r="J7" s="7"/>
@@ -5107,10 +5194,10 @@
       </c>
       <c r="D8" s="31"/>
       <c r="E8" s="31"/>
-      <c r="F8" s="140">
+      <c r="F8" s="136">
         <v>45877</v>
       </c>
-      <c r="G8" s="140">
+      <c r="G8" s="136">
         <v>45910</v>
       </c>
       <c r="H8" s="32">
@@ -5144,13 +5231,15 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="I9" s="79"/>
+      <c r="I9" s="79" t="s">
+        <v>74</v>
+      </c>
       <c r="J9" s="5"/>
       <c r="K9" s="45" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="2:11" s="6" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:11" s="6" customFormat="1" ht="27" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B10" s="72" t="s">
         <v>15</v>
       </c>
@@ -5171,7 +5260,9 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="I10" s="80"/>
+      <c r="I10" s="80" t="s">
+        <v>75</v>
+      </c>
       <c r="J10" s="5"/>
       <c r="K10" s="2" t="s">
         <v>13</v>
@@ -5198,7 +5289,9 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="I11" s="80"/>
+      <c r="I11" s="80" t="s">
+        <v>76</v>
+      </c>
       <c r="J11" s="5"/>
       <c r="K11" s="9" t="s">
         <v>18</v>
@@ -5225,11 +5318,13 @@
         <f t="shared" ref="H12" si="1">IF(F12=0,0,G12-F12)+1</f>
         <v>19</v>
       </c>
-      <c r="I12" s="80"/>
+      <c r="I12" s="80" t="s">
+        <v>77</v>
+      </c>
       <c r="J12" s="5"/>
-      <c r="K12" s="139"/>
+      <c r="K12" s="135"/>
     </row>
-    <row r="13" spans="2:11" s="6" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:11" s="6" customFormat="1" ht="27" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B13" s="72">
         <v>1.4</v>
       </c>
@@ -5250,7 +5345,9 @@
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="I13" s="80"/>
+      <c r="I13" s="80" t="s">
+        <v>78</v>
+      </c>
       <c r="J13" s="5"/>
       <c r="K13" s="1"/>
     </row>
@@ -5298,7 +5395,9 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="I15" s="80"/>
+      <c r="I15" s="139" t="s">
+        <v>79</v>
+      </c>
       <c r="J15" s="5"/>
       <c r="K15" s="1"/>
     </row>
@@ -5323,7 +5422,9 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="I16" s="80"/>
+      <c r="I16" s="139" t="s">
+        <v>80</v>
+      </c>
       <c r="J16" s="5"/>
       <c r="K16" s="1"/>
     </row>
@@ -5348,7 +5449,9 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="I17" s="80"/>
+      <c r="I17" s="139" t="s">
+        <v>81</v>
+      </c>
       <c r="J17" s="5"/>
       <c r="K17" s="1"/>
     </row>
@@ -5373,7 +5476,9 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="I18" s="82"/>
+      <c r="I18" s="139" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="19" spans="2:11" s="6" customFormat="1" ht="17.25" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="75" t="s">
@@ -5396,7 +5501,9 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="I19" s="83"/>
+      <c r="I19" s="139" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="20" spans="2:11" s="6" customFormat="1" ht="17.25" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="75" t="s">
@@ -5419,7 +5526,9 @@
         <f>IF(F20=0,0,G20-F20)+1</f>
         <v>2</v>
       </c>
-      <c r="I20" s="83"/>
+      <c r="I20" s="139" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="21" spans="2:11" s="6" customFormat="1" ht="17.25" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="74">
@@ -5442,7 +5551,9 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="I21" s="82"/>
+      <c r="I21" s="139" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="22" spans="2:11" s="6" customFormat="1" ht="17.25" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="75" t="s">
@@ -5465,7 +5576,9 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="I22" s="83"/>
+      <c r="I22" s="139" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="23" spans="2:11" s="6" customFormat="1" ht="17.25" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="75" t="s">
@@ -5488,7 +5601,9 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="I23" s="83"/>
+      <c r="I23" s="139" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="24" spans="2:11" s="6" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="B24" s="76">
@@ -5509,7 +5624,7 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="I24" s="84"/>
+      <c r="I24" s="82"/>
     </row>
     <row r="25" spans="2:11" s="6" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B25" s="72">
@@ -5532,7 +5647,9 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="I25" s="80"/>
+      <c r="I25" s="139" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="26" spans="2:11" s="6" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B26" s="72">
@@ -5555,7 +5672,9 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="I26" s="80"/>
+      <c r="I26" s="139" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="27" spans="2:11" s="6" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B27" s="72">
@@ -5578,7 +5697,9 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="I27" s="80"/>
+      <c r="I27" s="139" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="28" spans="2:11" s="6" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B28" s="71">
@@ -5601,7 +5722,9 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="I28" s="79"/>
+      <c r="I28" s="139" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="29" spans="2:11" s="6" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B29" s="72" t="s">
@@ -5624,7 +5747,9 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="I29" s="80"/>
+      <c r="I29" s="139" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="30" spans="2:11" s="6" customFormat="1" ht="17.25" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="75" t="s">
@@ -5647,7 +5772,9 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="I30" s="83"/>
+      <c r="I30" s="139" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="31" spans="2:11" s="6" customFormat="1" ht="17.25" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="74">
@@ -5657,7 +5784,7 @@
         <v>39</v>
       </c>
       <c r="D31" s="64" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E31" s="65"/>
       <c r="F31" s="66">
@@ -5670,7 +5797,9 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="I31" s="82"/>
+      <c r="I31" s="139" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="32" spans="2:11" s="6" customFormat="1" ht="17.25" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="75" t="s">
@@ -5693,7 +5822,9 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="I32" s="83"/>
+      <c r="I32" s="139" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="33" spans="2:9" s="6" customFormat="1" ht="17.25" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="75" t="s">
@@ -5716,7 +5847,9 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="I33" s="83"/>
+      <c r="I33" s="139" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="34" spans="2:9" s="6" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="B34" s="77">
@@ -5737,7 +5870,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="I34" s="85"/>
+      <c r="I34" s="140"/>
     </row>
     <row r="35" spans="2:9" s="6" customFormat="1" ht="33" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B35" s="72">
@@ -5756,11 +5889,13 @@
       <c r="G35" s="34">
         <v>45938</v>
       </c>
-      <c r="H35" s="99">
+      <c r="H35" s="96">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="I35" s="80"/>
+      <c r="I35" s="139" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="36" spans="2:9" s="6" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B36" s="72">
@@ -5779,11 +5914,13 @@
       <c r="G36" s="34">
         <v>45940</v>
       </c>
-      <c r="H36" s="99">
+      <c r="H36" s="96">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="I36" s="80"/>
+      <c r="I36" s="139" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="37" spans="2:9" s="6" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B37" s="72">
@@ -5802,32 +5939,34 @@
       <c r="G37" s="34">
         <v>45942</v>
       </c>
-      <c r="H37" s="99">
+      <c r="H37" s="96">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="I37" s="80"/>
+      <c r="I37" s="139" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="38" spans="2:9" s="6" customFormat="1" ht="17.25" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="92">
+      <c r="B38" s="89">
         <v>5</v>
       </c>
-      <c r="C38" s="93" t="s">
+      <c r="C38" s="90" t="s">
         <v>46</v>
       </c>
-      <c r="D38" s="94"/>
-      <c r="E38" s="95"/>
-      <c r="F38" s="96">
+      <c r="D38" s="91"/>
+      <c r="E38" s="92"/>
+      <c r="F38" s="93">
         <v>45937</v>
       </c>
-      <c r="G38" s="96">
+      <c r="G38" s="93">
         <v>45948</v>
       </c>
-      <c r="H38" s="97">
+      <c r="H38" s="94">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="I38" s="98"/>
+      <c r="I38" s="95"/>
     </row>
     <row r="39" spans="2:9" s="6" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B39" s="72">
@@ -5846,11 +5985,13 @@
       <c r="G39" s="34">
         <v>45946</v>
       </c>
-      <c r="H39" s="108">
+      <c r="H39" s="105">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="I39" s="80"/>
+      <c r="I39" s="139" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="40" spans="2:9" s="6" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B40" s="72">
@@ -5860,7 +6001,7 @@
         <v>48</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E40" s="10"/>
       <c r="F40" s="33">
@@ -5869,32 +6010,34 @@
       <c r="G40" s="34">
         <v>45948</v>
       </c>
-      <c r="H40" s="108">
+      <c r="H40" s="105">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="I40" s="80"/>
+      <c r="I40" s="139" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="41" spans="2:9" s="6" customFormat="1" ht="17.25" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="110">
+      <c r="B41" s="107">
         <v>6</v>
       </c>
-      <c r="C41" s="111" t="s">
+      <c r="C41" s="108" t="s">
         <v>49</v>
       </c>
-      <c r="D41" s="112"/>
-      <c r="E41" s="113"/>
-      <c r="F41" s="114">
+      <c r="D41" s="109"/>
+      <c r="E41" s="110"/>
+      <c r="F41" s="111">
         <v>45942</v>
       </c>
-      <c r="G41" s="114">
+      <c r="G41" s="111">
         <v>45954</v>
       </c>
-      <c r="H41" s="115">
+      <c r="H41" s="112">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="I41" s="116"/>
+      <c r="I41" s="141"/>
     </row>
     <row r="42" spans="2:9" s="6" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B42" s="72">
@@ -5907,17 +6050,19 @@
         <v>14</v>
       </c>
       <c r="E42" s="10"/>
-      <c r="F42" s="141">
+      <c r="F42" s="137">
         <v>45942</v>
       </c>
       <c r="G42" s="34">
         <v>45951</v>
       </c>
-      <c r="H42" s="117">
+      <c r="H42" s="113">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="I42" s="80"/>
+      <c r="I42" s="139" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="43" spans="2:9" s="6" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B43" s="72">
@@ -5936,11 +6081,13 @@
       <c r="G43" s="34">
         <v>45953</v>
       </c>
-      <c r="H43" s="117">
+      <c r="H43" s="113">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="I43" s="80"/>
+      <c r="I43" s="139" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="44" spans="2:9" s="6" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B44" s="72">
@@ -5959,32 +6106,34 @@
       <c r="G44" s="34">
         <v>45954</v>
       </c>
-      <c r="H44" s="117">
+      <c r="H44" s="113">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="I44" s="80"/>
+      <c r="I44" s="139" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="45" spans="2:9" s="6" customFormat="1" ht="17.25" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="100">
+      <c r="B45" s="97">
         <v>7</v>
       </c>
-      <c r="C45" s="101" t="s">
+      <c r="C45" s="98" t="s">
         <v>53</v>
       </c>
-      <c r="D45" s="102"/>
-      <c r="E45" s="103"/>
-      <c r="F45" s="104">
+      <c r="D45" s="99"/>
+      <c r="E45" s="100"/>
+      <c r="F45" s="101">
         <v>45949</v>
       </c>
-      <c r="G45" s="104">
+      <c r="G45" s="101">
         <v>45960</v>
       </c>
-      <c r="H45" s="105">
+      <c r="H45" s="102">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="I45" s="106"/>
+      <c r="I45" s="103"/>
     </row>
     <row r="46" spans="2:9" s="6" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B46" s="72">
@@ -6003,7 +6152,7 @@
       <c r="G46" s="34">
         <v>45957</v>
       </c>
-      <c r="H46" s="107">
+      <c r="H46" s="104">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
@@ -6026,7 +6175,7 @@
       <c r="G47" s="34">
         <v>45959</v>
       </c>
-      <c r="H47" s="107">
+      <c r="H47" s="104">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
@@ -6049,32 +6198,32 @@
       <c r="G48" s="34">
         <v>45960</v>
       </c>
-      <c r="H48" s="107">
+      <c r="H48" s="104">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="I48" s="80"/>
     </row>
     <row r="49" spans="2:9" s="6" customFormat="1" ht="17.25" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="118">
+      <c r="B49" s="114">
         <v>8</v>
       </c>
-      <c r="C49" s="119" t="s">
+      <c r="C49" s="115" t="s">
         <v>57</v>
       </c>
-      <c r="D49" s="120"/>
-      <c r="E49" s="121"/>
-      <c r="F49" s="122">
+      <c r="D49" s="116"/>
+      <c r="E49" s="117"/>
+      <c r="F49" s="118">
         <v>45955</v>
       </c>
-      <c r="G49" s="122">
+      <c r="G49" s="118">
         <v>45964</v>
       </c>
-      <c r="H49" s="123">
+      <c r="H49" s="119">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="I49" s="124"/>
+      <c r="I49" s="120"/>
     </row>
     <row r="50" spans="2:9" s="6" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B50" s="72">
@@ -6093,7 +6242,7 @@
       <c r="G50" s="34">
         <v>45961</v>
       </c>
-      <c r="H50" s="125">
+      <c r="H50" s="121">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
@@ -6116,7 +6265,7 @@
       <c r="G51" s="34">
         <v>45963</v>
       </c>
-      <c r="H51" s="125">
+      <c r="H51" s="121">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
@@ -6139,32 +6288,32 @@
       <c r="G52" s="34">
         <v>45964</v>
       </c>
-      <c r="H52" s="125">
+      <c r="H52" s="121">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="I52" s="80"/>
     </row>
     <row r="53" spans="2:9" s="6" customFormat="1" ht="17.25" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="126">
+      <c r="B53" s="122">
         <v>9</v>
       </c>
-      <c r="C53" s="127" t="s">
+      <c r="C53" s="123" t="s">
         <v>61</v>
       </c>
-      <c r="D53" s="128"/>
-      <c r="E53" s="129"/>
-      <c r="F53" s="142">
+      <c r="D53" s="124"/>
+      <c r="E53" s="125"/>
+      <c r="F53" s="138">
         <v>45961</v>
       </c>
-      <c r="G53" s="130">
+      <c r="G53" s="126">
         <v>45967</v>
       </c>
-      <c r="H53" s="131">
+      <c r="H53" s="127">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="I53" s="132"/>
+      <c r="I53" s="128"/>
     </row>
     <row r="54" spans="2:9" s="6" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B54" s="72">
@@ -6183,7 +6332,7 @@
       <c r="G54" s="34">
         <v>45965</v>
       </c>
-      <c r="H54" s="133">
+      <c r="H54" s="129">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -6206,34 +6355,34 @@
       <c r="G55" s="34">
         <v>45966</v>
       </c>
-      <c r="H55" s="133">
+      <c r="H55" s="129">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="I55" s="80"/>
     </row>
     <row r="56" spans="2:9" s="6" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="86">
+      <c r="B56" s="83">
         <v>9.3000000000000007</v>
       </c>
-      <c r="C56" s="87" t="s">
+      <c r="C56" s="84" t="s">
         <v>64</v>
       </c>
-      <c r="D56" s="88" t="s">
+      <c r="D56" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="E56" s="89"/>
+      <c r="E56" s="86"/>
       <c r="F56" s="33">
         <v>45965</v>
       </c>
-      <c r="G56" s="109">
+      <c r="G56" s="106">
         <v>45967</v>
       </c>
-      <c r="H56" s="134">
+      <c r="H56" s="130">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="I56" s="90"/>
+      <c r="I56" s="87"/>
     </row>
     <row r="57" spans="2:9" s="6" customFormat="1" ht="24.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B57" s="7"/>
@@ -6242,7 +6391,7 @@
       <c r="E57" s="50"/>
       <c r="F57" s="51"/>
       <c r="G57" s="52"/>
-      <c r="H57" s="91"/>
+      <c r="H57" s="88"/>
       <c r="I57" s="7"/>
     </row>
     <row r="58" spans="2:9" s="6" customFormat="1" ht="24.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -6252,7 +6401,7 @@
       <c r="E58" s="50"/>
       <c r="F58" s="51"/>
       <c r="G58" s="52"/>
-      <c r="H58" s="91"/>
+      <c r="H58" s="88"/>
       <c r="I58" s="7"/>
     </row>
     <row r="59" spans="2:9" s="6" customFormat="1" ht="24.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -6262,7 +6411,7 @@
       <c r="E59" s="50"/>
       <c r="F59" s="51"/>
       <c r="G59" s="52"/>
-      <c r="H59" s="91"/>
+      <c r="H59" s="88"/>
       <c r="I59" s="7"/>
     </row>
     <row r="60" spans="2:9" s="6" customFormat="1" ht="24.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -6272,7 +6421,7 @@
       <c r="E60" s="50"/>
       <c r="F60" s="51"/>
       <c r="G60" s="52"/>
-      <c r="H60" s="91"/>
+      <c r="H60" s="88"/>
       <c r="I60" s="7"/>
     </row>
     <row r="61" spans="2:9" s="6" customFormat="1" ht="24.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -6282,7 +6431,7 @@
       <c r="E61" s="50"/>
       <c r="F61" s="51"/>
       <c r="G61" s="52"/>
-      <c r="H61" s="91"/>
+      <c r="H61" s="88"/>
       <c r="I61" s="7"/>
     </row>
     <row r="62" spans="2:9" s="6" customFormat="1" ht="24.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -6292,7 +6441,7 @@
       <c r="E62" s="50"/>
       <c r="F62" s="51"/>
       <c r="G62" s="52"/>
-      <c r="H62" s="91"/>
+      <c r="H62" s="88"/>
       <c r="I62" s="7"/>
     </row>
     <row r="63" spans="2:9" ht="300" customHeight="1" x14ac:dyDescent="0.25">

--- a/Planeacion cronograma proyecto.xlsx
+++ b/Planeacion cronograma proyecto.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24334"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29328"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\salas\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB5324D7-45E5-41A7-9552-07F639992D0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92509DC7-8A1C-4508-86F1-DC4A506E875D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Example - Project Plan Template" sheetId="1" r:id="rId1"/>
@@ -32,9 +32,6 @@
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
-    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
-      <xlwcv:version setVersion="1"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -43,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="114">
   <si>
     <t>Nombre del Proyecto</t>
   </si>
@@ -358,6 +355,33 @@
   </si>
   <si>
     <t>En realizacion ajustes para mejorar la velocidad y eficiencia del sistema.</t>
+  </si>
+  <si>
+    <t>Se identificaron varios errores menores que afectaban el rendimiento; fueron corregidos</t>
+  </si>
+  <si>
+    <t>El proceso tomó más tiempo de lo previsto debido a incompatibilidades entre módulos y se lograron mejoras en la precisión del modelo tras ajustes en los parámetros.</t>
+  </si>
+  <si>
+    <t>Se redujo significativamente el tiempo de carga en dispositivos de gama media.</t>
+  </si>
+  <si>
+    <t>Se requirió actualizar librerías del servidor para compatibilidad con la última versión del backend.</t>
+  </si>
+  <si>
+    <t>Algunos usuarios reportaron dificultades menores en el proceso de instalación</t>
+  </si>
+  <si>
+    <t>La mayoría de usuarios expresó satisfacción general, especialmente en la velocidad y usabilidad.</t>
+  </si>
+  <si>
+    <t>Se agregaron diagramas actualizados según los últimos cambios de arquitectura.</t>
+  </si>
+  <si>
+    <t>El informe integra de manera clara los avances, riesgos y decisiones tomadas.</t>
+  </si>
+  <si>
+    <t>Se ajustó el contenido para hacerlo más comprensible para stakeholders no técnicos.</t>
   </si>
 </sst>
 </file>
@@ -368,7 +392,7 @@
     <numFmt numFmtId="164" formatCode="m/d;@"/>
     <numFmt numFmtId="165" formatCode="mm/dd"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -497,6 +521,16 @@
     <font>
       <sz val="10"/>
       <color theme="0"/>
+      <name val="Century Gothic"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Century Gothic"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Century Gothic"/>
       <family val="2"/>
     </font>
@@ -854,7 +888,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="142">
+  <cellXfs count="144">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1114,9 +1148,6 @@
     <xf numFmtId="164" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1237,9 +1268,6 @@
     <xf numFmtId="1" fontId="11" fillId="23" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="1" fontId="4" fillId="24" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1256,9 +1284,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="25" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="165" fontId="16" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1276,6 +1301,19 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="19" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1287,6 +1325,62 @@
     <cellStyle name="Normal 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
   </cellStyles>
   <dxfs count="26">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1938,62 +2032,6 @@
         <bottom/>
       </border>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
   <colors>
@@ -2467,75 +2505,6 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dPt>
-            <c:idx val="1"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="00B0F0"/>
-              </a:solidFill>
-              <a:ln cap="flat">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:miter lim="800000"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-0EC4-465E-99D4-B6C52A562851}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="00B0F0"/>
-              </a:solidFill>
-              <a:ln cap="flat">
-                <a:solidFill>
-                  <a:schemeClr val="accent5">
-                    <a:lumMod val="60000"/>
-                    <a:lumOff val="40000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:miter lim="800000"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000004-0EC4-465E-99D4-B6C52A562851}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="00B0F0"/>
-              </a:solidFill>
-              <a:ln cap="flat">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:miter lim="800000"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-0EC4-465E-99D4-B6C52A562851}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
             <c:idx val="5"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
@@ -2563,7 +2532,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="00B050"/>
+                <a:srgbClr val="00B0F0"/>
               </a:solidFill>
               <a:ln cap="flat">
                 <a:solidFill>
@@ -2795,13 +2764,14 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
+                <a:srgbClr val="00B0F0"/>
               </a:solidFill>
               <a:ln cap="flat">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
                 </a:solidFill>
                 <a:miter lim="800000"/>
               </a:ln>
@@ -3038,7 +3008,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="7030A0"/>
+                <a:srgbClr val="00B0F0"/>
               </a:solidFill>
               <a:ln cap="flat">
                 <a:solidFill>
@@ -4062,6 +4032,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -4069,7 +4040,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -4691,18 +4661,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{72A90695-F890-4B18-9EB8-038D78A53CA4}" name="Crono" displayName="Crono" ref="B8:I56" headerRowCount="0" totalsRowShown="0" headerRowDxfId="17" tableBorderDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{72A90695-F890-4B18-9EB8-038D78A53CA4}" name="Crono" displayName="Crono" ref="B8:I56" headerRowCount="0" totalsRowShown="0" headerRowDxfId="25" tableBorderDxfId="24">
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{8A2879CD-2E0E-4ADD-8465-1948731C7191}" name="WBS No." headerRowDxfId="15" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{F7BAF891-321F-4DFD-B070-73E28686346D}" name="Nombre de la tarea" headerRowDxfId="13" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{D0757C45-5460-4514-BEB9-DCF8CD9DACD5}" name="Estado" headerRowDxfId="11" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{A26245A9-C98A-4E9C-AB89-F3E7AA62372E}" name="Asignado a" headerRowDxfId="9" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{D46B36BE-655B-4C51-AF19-EAD9CA79CC22}" name="Fecha  inicio" headerRowDxfId="7" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{5E8BDF52-6EBC-4BF5-8216-64AA74F389F5}" name="Fecha fin" headerRowDxfId="5" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{93B9F29B-ED8B-4033-81F2-147234BB7254}" name="Duración (en días)" headerRowDxfId="3" dataDxfId="2">
+    <tableColumn id="1" xr3:uid="{8A2879CD-2E0E-4ADD-8465-1948731C7191}" name="WBS No." headerRowDxfId="23" dataDxfId="22"/>
+    <tableColumn id="2" xr3:uid="{F7BAF891-321F-4DFD-B070-73E28686346D}" name="Nombre de la tarea" headerRowDxfId="21" dataDxfId="20"/>
+    <tableColumn id="3" xr3:uid="{D0757C45-5460-4514-BEB9-DCF8CD9DACD5}" name="Estado" headerRowDxfId="19" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{A26245A9-C98A-4E9C-AB89-F3E7AA62372E}" name="Asignado a" headerRowDxfId="17" dataDxfId="16"/>
+    <tableColumn id="5" xr3:uid="{D46B36BE-655B-4C51-AF19-EAD9CA79CC22}" name="Fecha  inicio" headerRowDxfId="15" dataDxfId="14"/>
+    <tableColumn id="6" xr3:uid="{5E8BDF52-6EBC-4BF5-8216-64AA74F389F5}" name="Fecha fin" headerRowDxfId="13" dataDxfId="12"/>
+    <tableColumn id="7" xr3:uid="{93B9F29B-ED8B-4033-81F2-147234BB7254}" name="Duración (en días)" headerRowDxfId="11" dataDxfId="10">
       <calculatedColumnFormula>IF(F8=0,0,G8-F8)+1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{0F570902-E2C4-4DC6-98BC-5B93FFABA4B1}" name="Comentarios" headerRowDxfId="1" dataDxfId="0"/>
+    <tableColumn id="8" xr3:uid="{0F570902-E2C4-4DC6-98BC-5B93FFABA4B1}" name="Comentarios" headerRowDxfId="9" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -5036,30 +5006,30 @@
   </sheetPr>
   <dimension ref="B1:K64"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I47" sqref="I47"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I52" sqref="I52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13.5" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13.2" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.375" style="4" customWidth="1"/>
-    <col min="2" max="2" width="11.75" style="4" customWidth="1"/>
+    <col min="1" max="1" width="3.3984375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="11.69921875" style="4" customWidth="1"/>
     <col min="3" max="3" width="57" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="20.875" style="4" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="16.125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="15.375" style="4" customWidth="1"/>
-    <col min="8" max="8" width="21.375" style="4" customWidth="1"/>
-    <col min="9" max="9" width="80.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="3.375" style="4" customWidth="1"/>
-    <col min="11" max="11" width="12.875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="12.8984375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="20.8984375" style="4" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="16.09765625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="15.3984375" style="4" customWidth="1"/>
+    <col min="8" max="8" width="21.3984375" style="4" customWidth="1"/>
+    <col min="9" max="9" width="80.09765625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3.3984375" style="4" customWidth="1"/>
+    <col min="11" max="11" width="12.8984375" style="4" customWidth="1"/>
     <col min="12" max="17" width="11" style="4"/>
     <col min="18" max="18" width="9" style="4" customWidth="1"/>
     <col min="19" max="16384" width="11" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:11" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="44" t="s">
         <v>0</v>
       </c>
@@ -5072,7 +5042,7 @@
       <c r="J1" s="1"/>
       <c r="K1"/>
     </row>
-    <row r="2" spans="2:11" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:11" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="14"/>
       <c r="C2" s="14" t="s">
         <v>1</v>
@@ -5088,13 +5058,13 @@
       <c r="J2" s="14"/>
       <c r="K2" s="14"/>
     </row>
-    <row r="3" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1"/>
       <c r="C3" s="28" t="s">
         <v>3</v>
       </c>
       <c r="D3" s="1"/>
-      <c r="E3" s="131">
+      <c r="E3" s="129">
         <v>45878</v>
       </c>
       <c r="F3" s="1"/>
@@ -5106,7 +5076,7 @@
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="2:11" s="15" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:11" s="15" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="14"/>
       <c r="C4" s="29" t="s">
         <v>5</v>
@@ -5124,13 +5094,13 @@
       <c r="J4" s="14"/>
       <c r="K4" s="14"/>
     </row>
-    <row r="5" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="1"/>
       <c r="C5" s="42" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="1"/>
-      <c r="E5" s="131">
+      <c r="E5" s="129">
         <v>45976</v>
       </c>
       <c r="F5" s="1"/>
@@ -5155,29 +5125,29 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="2:11" s="8" customFormat="1" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="132" t="s">
+    <row r="7" spans="2:11" s="8" customFormat="1" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="130" t="s">
         <v>65</v>
       </c>
-      <c r="C7" s="132" t="s">
+      <c r="C7" s="130" t="s">
         <v>66</v>
       </c>
-      <c r="D7" s="132" t="s">
+      <c r="D7" s="130" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="132" t="s">
+      <c r="E7" s="130" t="s">
         <v>67</v>
       </c>
-      <c r="F7" s="133" t="s">
+      <c r="F7" s="131" t="s">
         <v>68</v>
       </c>
-      <c r="G7" s="134" t="s">
+      <c r="G7" s="132" t="s">
         <v>69</v>
       </c>
-      <c r="H7" s="132" t="s">
+      <c r="H7" s="130" t="s">
         <v>70</v>
       </c>
-      <c r="I7" s="132" t="s">
+      <c r="I7" s="130" t="s">
         <v>71</v>
       </c>
       <c r="J7" s="7"/>
@@ -5185,7 +5155,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="2:11" s="6" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:11" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="B8" s="70">
         <v>1</v>
       </c>
@@ -5194,10 +5164,10 @@
       </c>
       <c r="D8" s="31"/>
       <c r="E8" s="31"/>
-      <c r="F8" s="136">
+      <c r="F8" s="133">
         <v>45877</v>
       </c>
-      <c r="G8" s="136">
+      <c r="G8" s="133">
         <v>45910</v>
       </c>
       <c r="H8" s="32">
@@ -5210,7 +5180,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="2:11" s="6" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:11" s="6" customFormat="1" ht="13.8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B9" s="71">
         <v>1.1000000000000001</v>
       </c>
@@ -5239,7 +5209,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="2:11" s="6" customFormat="1" ht="27" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:11" s="6" customFormat="1" ht="13.8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B10" s="72" t="s">
         <v>15</v>
       </c>
@@ -5268,7 +5238,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="2:11" s="6" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:11" s="6" customFormat="1" ht="13.8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B11" s="72">
         <v>1.2</v>
       </c>
@@ -5297,7 +5267,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="2:11" s="6" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:11" s="6" customFormat="1" ht="13.8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B12" s="72">
         <v>1.3</v>
       </c>
@@ -5322,9 +5292,9 @@
         <v>77</v>
       </c>
       <c r="J12" s="5"/>
-      <c r="K12" s="135"/>
+      <c r="K12" s="8"/>
     </row>
-    <row r="13" spans="2:11" s="6" customFormat="1" ht="27" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:11" s="6" customFormat="1" ht="13.8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B13" s="72">
         <v>1.4</v>
       </c>
@@ -5351,7 +5321,7 @@
       <c r="J13" s="5"/>
       <c r="K13" s="1"/>
     </row>
-    <row r="14" spans="2:11" s="6" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:11" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B14" s="73">
         <v>2</v>
       </c>
@@ -5374,7 +5344,7 @@
       <c r="J14" s="5"/>
       <c r="K14" s="1"/>
     </row>
-    <row r="15" spans="2:11" s="6" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:11" s="6" customFormat="1" ht="13.8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B15" s="72">
         <v>2.1</v>
       </c>
@@ -5395,13 +5365,13 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="I15" s="139" t="s">
+      <c r="I15" s="136" t="s">
         <v>79</v>
       </c>
       <c r="J15" s="5"/>
       <c r="K15" s="1"/>
     </row>
-    <row r="16" spans="2:11" s="6" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:11" s="6" customFormat="1" ht="13.8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B16" s="72">
         <v>2.2000000000000002</v>
       </c>
@@ -5422,13 +5392,13 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="I16" s="139" t="s">
+      <c r="I16" s="136" t="s">
         <v>80</v>
       </c>
       <c r="J16" s="5"/>
       <c r="K16" s="1"/>
     </row>
-    <row r="17" spans="2:11" s="6" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:11" s="6" customFormat="1" ht="13.8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B17" s="72">
         <v>2.2999999999999998</v>
       </c>
@@ -5449,13 +5419,13 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="I17" s="139" t="s">
+      <c r="I17" s="136" t="s">
         <v>81</v>
       </c>
       <c r="J17" s="5"/>
       <c r="K17" s="1"/>
     </row>
-    <row r="18" spans="2:11" s="6" customFormat="1" ht="17.25" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:11" s="6" customFormat="1" ht="14.4" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="74">
         <v>2.4</v>
       </c>
@@ -5476,11 +5446,11 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="I18" s="139" t="s">
+      <c r="I18" s="136" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="19" spans="2:11" s="6" customFormat="1" ht="17.25" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:11" s="6" customFormat="1" ht="14.4" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="75" t="s">
         <v>24</v>
       </c>
@@ -5501,11 +5471,11 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="I19" s="139" t="s">
+      <c r="I19" s="136" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="20" spans="2:11" s="6" customFormat="1" ht="17.25" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:11" s="6" customFormat="1" ht="14.4" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="75" t="s">
         <v>26</v>
       </c>
@@ -5526,11 +5496,11 @@
         <f>IF(F20=0,0,G20-F20)+1</f>
         <v>2</v>
       </c>
-      <c r="I20" s="139" t="s">
+      <c r="I20" s="136" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="21" spans="2:11" s="6" customFormat="1" ht="17.25" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:11" s="6" customFormat="1" ht="14.4" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="74">
         <v>2.5</v>
       </c>
@@ -5551,11 +5521,11 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="I21" s="139" t="s">
+      <c r="I21" s="136" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="22" spans="2:11" s="6" customFormat="1" ht="17.25" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:11" s="6" customFormat="1" ht="14.4" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="75" t="s">
         <v>29</v>
       </c>
@@ -5576,11 +5546,11 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="I22" s="139" t="s">
+      <c r="I22" s="136" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="23" spans="2:11" s="6" customFormat="1" ht="17.25" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:11" s="6" customFormat="1" ht="14.4" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="75" t="s">
         <v>31</v>
       </c>
@@ -5601,11 +5571,11 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="I23" s="139" t="s">
+      <c r="I23" s="136" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="24" spans="2:11" s="6" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:11" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="B24" s="76">
         <v>3</v>
       </c>
@@ -5626,7 +5596,7 @@
       </c>
       <c r="I24" s="82"/>
     </row>
-    <row r="25" spans="2:11" s="6" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:11" s="6" customFormat="1" ht="13.8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B25" s="72">
         <v>3.1</v>
       </c>
@@ -5647,11 +5617,11 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="I25" s="139" t="s">
+      <c r="I25" s="136" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="26" spans="2:11" s="6" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:11" s="6" customFormat="1" ht="13.8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B26" s="72">
         <v>3.2</v>
       </c>
@@ -5672,11 +5642,11 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="I26" s="139" t="s">
+      <c r="I26" s="136" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="27" spans="2:11" s="6" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:11" s="6" customFormat="1" ht="13.8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B27" s="72">
         <v>3.3</v>
       </c>
@@ -5697,11 +5667,11 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="I27" s="139" t="s">
+      <c r="I27" s="136" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="28" spans="2:11" s="6" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:11" s="6" customFormat="1" ht="13.8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B28" s="71">
         <v>3.4</v>
       </c>
@@ -5722,11 +5692,11 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="I28" s="139" t="s">
+      <c r="I28" s="136" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="29" spans="2:11" s="6" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:11" s="6" customFormat="1" ht="13.8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B29" s="72" t="s">
         <v>37</v>
       </c>
@@ -5747,11 +5717,11 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="I29" s="139" t="s">
+      <c r="I29" s="136" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="30" spans="2:11" s="6" customFormat="1" ht="17.25" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:11" s="6" customFormat="1" ht="14.4" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="75" t="s">
         <v>38</v>
       </c>
@@ -5772,11 +5742,11 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="I30" s="139" t="s">
+      <c r="I30" s="136" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="31" spans="2:11" s="6" customFormat="1" ht="17.25" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:11" s="6" customFormat="1" ht="14.4" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="74">
         <v>3.5</v>
       </c>
@@ -5784,7 +5754,7 @@
         <v>39</v>
       </c>
       <c r="D31" s="64" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E31" s="65"/>
       <c r="F31" s="66">
@@ -5797,11 +5767,11 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="I31" s="139" t="s">
+      <c r="I31" s="136" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="32" spans="2:11" s="6" customFormat="1" ht="17.25" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:11" s="6" customFormat="1" ht="14.4" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="75" t="s">
         <v>40</v>
       </c>
@@ -5822,11 +5792,11 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="I32" s="139" t="s">
+      <c r="I32" s="136" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="33" spans="2:9" s="6" customFormat="1" ht="17.25" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:9" s="6" customFormat="1" ht="14.4" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="75" t="s">
         <v>41</v>
       </c>
@@ -5847,11 +5817,11 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="I33" s="139" t="s">
+      <c r="I33" s="136" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="34" spans="2:9" s="6" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="B34" s="77">
         <v>4</v>
       </c>
@@ -5870,9 +5840,9 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="I34" s="140"/>
+      <c r="I34" s="137"/>
     </row>
-    <row r="35" spans="2:9" s="6" customFormat="1" ht="33" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" s="6" customFormat="1" ht="27.6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B35" s="72">
         <v>4.0999999999999996</v>
       </c>
@@ -5889,15 +5859,15 @@
       <c r="G35" s="34">
         <v>45938</v>
       </c>
-      <c r="H35" s="96">
+      <c r="H35" s="95">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="I35" s="139" t="s">
+      <c r="I35" s="136" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="36" spans="2:9" s="6" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" s="6" customFormat="1" ht="13.8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B36" s="72">
         <v>4.2</v>
       </c>
@@ -5905,7 +5875,7 @@
         <v>44</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E36" s="10"/>
       <c r="F36" s="33">
@@ -5914,15 +5884,15 @@
       <c r="G36" s="34">
         <v>45940</v>
       </c>
-      <c r="H36" s="96">
+      <c r="H36" s="95">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="I36" s="139" t="s">
+      <c r="I36" s="136" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="37" spans="2:9" s="6" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" s="6" customFormat="1" ht="13.8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B37" s="72">
         <v>4.3</v>
       </c>
@@ -5939,36 +5909,36 @@
       <c r="G37" s="34">
         <v>45942</v>
       </c>
-      <c r="H37" s="96">
+      <c r="H37" s="95">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="I37" s="139" t="s">
+      <c r="I37" s="136" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="38" spans="2:9" s="6" customFormat="1" ht="17.25" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="89">
+    <row r="38" spans="2:9" s="6" customFormat="1" ht="15" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="88">
         <v>5</v>
       </c>
-      <c r="C38" s="90" t="s">
+      <c r="C38" s="89" t="s">
         <v>46</v>
       </c>
-      <c r="D38" s="91"/>
-      <c r="E38" s="92"/>
-      <c r="F38" s="93">
+      <c r="D38" s="90"/>
+      <c r="E38" s="91"/>
+      <c r="F38" s="92">
         <v>45937</v>
       </c>
-      <c r="G38" s="93">
+      <c r="G38" s="92">
         <v>45948</v>
       </c>
-      <c r="H38" s="94">
+      <c r="H38" s="93">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="I38" s="95"/>
+      <c r="I38" s="94"/>
     </row>
-    <row r="39" spans="2:9" s="6" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" s="6" customFormat="1" ht="13.8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B39" s="72">
         <v>5.0999999999999996</v>
       </c>
@@ -5985,15 +5955,15 @@
       <c r="G39" s="34">
         <v>45946</v>
       </c>
-      <c r="H39" s="105">
+      <c r="H39" s="104">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="I39" s="139" t="s">
+      <c r="I39" s="136" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="40" spans="2:9" s="6" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9" s="6" customFormat="1" ht="13.8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B40" s="72">
         <v>5.2</v>
       </c>
@@ -6001,7 +5971,7 @@
         <v>48</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E40" s="10"/>
       <c r="F40" s="33">
@@ -6010,36 +5980,36 @@
       <c r="G40" s="34">
         <v>45948</v>
       </c>
-      <c r="H40" s="105">
+      <c r="H40" s="104">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="I40" s="139" t="s">
+      <c r="I40" s="136" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="41" spans="2:9" s="6" customFormat="1" ht="17.25" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="107">
+    <row r="41" spans="2:9" s="6" customFormat="1" ht="15" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="106">
         <v>6</v>
       </c>
-      <c r="C41" s="108" t="s">
+      <c r="C41" s="107" t="s">
         <v>49</v>
       </c>
-      <c r="D41" s="109"/>
-      <c r="E41" s="110"/>
-      <c r="F41" s="111">
+      <c r="D41" s="108"/>
+      <c r="E41" s="109"/>
+      <c r="F41" s="110">
         <v>45942</v>
       </c>
-      <c r="G41" s="111">
+      <c r="G41" s="110">
         <v>45954</v>
       </c>
-      <c r="H41" s="112">
+      <c r="H41" s="111">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="I41" s="141"/>
+      <c r="I41" s="138"/>
     </row>
-    <row r="42" spans="2:9" s="6" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" s="6" customFormat="1" ht="13.8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B42" s="72">
         <v>6.1</v>
       </c>
@@ -6047,24 +6017,24 @@
         <v>50</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E42" s="10"/>
-      <c r="F42" s="137">
+      <c r="F42" s="134">
         <v>45942</v>
       </c>
       <c r="G42" s="34">
         <v>45951</v>
       </c>
-      <c r="H42" s="113">
+      <c r="H42" s="112">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="I42" s="139" t="s">
+      <c r="I42" s="136" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="43" spans="2:9" s="6" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:9" s="6" customFormat="1" ht="13.8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B43" s="72">
         <v>6.2</v>
       </c>
@@ -6072,7 +6042,7 @@
         <v>51</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E43" s="10"/>
       <c r="F43" s="33">
@@ -6081,15 +6051,15 @@
       <c r="G43" s="34">
         <v>45953</v>
       </c>
-      <c r="H43" s="113">
+      <c r="H43" s="112">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="I43" s="139" t="s">
+      <c r="I43" s="136" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="44" spans="2:9" s="6" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:9" s="6" customFormat="1" ht="13.8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B44" s="72">
         <v>6.3</v>
       </c>
@@ -6097,7 +6067,7 @@
         <v>52</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E44" s="10"/>
       <c r="F44" s="33">
@@ -6106,36 +6076,36 @@
       <c r="G44" s="34">
         <v>45954</v>
       </c>
-      <c r="H44" s="113">
+      <c r="H44" s="112">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="I44" s="139" t="s">
+      <c r="I44" s="136" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="45" spans="2:9" s="6" customFormat="1" ht="17.25" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="97">
+    <row r="45" spans="2:9" s="6" customFormat="1" ht="15" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="96">
         <v>7</v>
       </c>
-      <c r="C45" s="98" t="s">
+      <c r="C45" s="97" t="s">
         <v>53</v>
       </c>
-      <c r="D45" s="99"/>
-      <c r="E45" s="100"/>
-      <c r="F45" s="101">
+      <c r="D45" s="98"/>
+      <c r="E45" s="99"/>
+      <c r="F45" s="100">
         <v>45949</v>
       </c>
-      <c r="G45" s="101">
+      <c r="G45" s="100">
         <v>45960</v>
       </c>
-      <c r="H45" s="102">
+      <c r="H45" s="101">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="I45" s="103"/>
+      <c r="I45" s="102"/>
     </row>
-    <row r="46" spans="2:9" s="6" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:9" s="6" customFormat="1" ht="13.8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B46" s="72">
         <v>7.1</v>
       </c>
@@ -6143,7 +6113,7 @@
         <v>54</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E46" s="10"/>
       <c r="F46" s="33">
@@ -6152,13 +6122,15 @@
       <c r="G46" s="34">
         <v>45957</v>
       </c>
-      <c r="H46" s="104">
+      <c r="H46" s="103">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="I46" s="80"/>
+      <c r="I46" s="141" t="s">
+        <v>105</v>
+      </c>
     </row>
-    <row r="47" spans="2:9" s="6" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:9" s="6" customFormat="1" ht="26.4" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B47" s="72">
         <v>7.2</v>
       </c>
@@ -6166,7 +6138,7 @@
         <v>55</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E47" s="10"/>
       <c r="F47" s="33">
@@ -6175,13 +6147,15 @@
       <c r="G47" s="34">
         <v>45959</v>
       </c>
-      <c r="H47" s="104">
+      <c r="H47" s="103">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="I47" s="80"/>
+      <c r="I47" s="140" t="s">
+        <v>106</v>
+      </c>
     </row>
-    <row r="48" spans="2:9" s="6" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:9" s="6" customFormat="1" ht="13.8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B48" s="72">
         <v>7.3</v>
       </c>
@@ -6189,7 +6163,7 @@
         <v>56</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E48" s="10"/>
       <c r="F48" s="33">
@@ -6198,34 +6172,36 @@
       <c r="G48" s="34">
         <v>45960</v>
       </c>
-      <c r="H48" s="104">
+      <c r="H48" s="103">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="I48" s="80"/>
+      <c r="I48" s="140" t="s">
+        <v>107</v>
+      </c>
     </row>
-    <row r="49" spans="2:9" s="6" customFormat="1" ht="17.25" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="114">
+    <row r="49" spans="2:9" s="6" customFormat="1" ht="15" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="113">
         <v>8</v>
       </c>
-      <c r="C49" s="115" t="s">
+      <c r="C49" s="114" t="s">
         <v>57</v>
       </c>
-      <c r="D49" s="116"/>
-      <c r="E49" s="117"/>
-      <c r="F49" s="118">
+      <c r="D49" s="115"/>
+      <c r="E49" s="116"/>
+      <c r="F49" s="117">
         <v>45955</v>
       </c>
-      <c r="G49" s="118">
+      <c r="G49" s="117">
         <v>45964</v>
       </c>
-      <c r="H49" s="119">
+      <c r="H49" s="118">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="I49" s="120"/>
+      <c r="I49" s="119"/>
     </row>
-    <row r="50" spans="2:9" s="6" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:9" s="6" customFormat="1" ht="26.4" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B50" s="72">
         <v>8.1</v>
       </c>
@@ -6233,7 +6209,7 @@
         <v>58</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E50" s="10"/>
       <c r="F50" s="33">
@@ -6242,13 +6218,15 @@
       <c r="G50" s="34">
         <v>45961</v>
       </c>
-      <c r="H50" s="121">
+      <c r="H50" s="120">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="I50" s="80"/>
+      <c r="I50" s="139" t="s">
+        <v>108</v>
+      </c>
     </row>
-    <row r="51" spans="2:9" s="6" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:9" s="6" customFormat="1" ht="13.8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B51" s="72">
         <v>8.1999999999999993</v>
       </c>
@@ -6256,7 +6234,7 @@
         <v>59</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E51" s="10"/>
       <c r="F51" s="33">
@@ -6265,13 +6243,15 @@
       <c r="G51" s="34">
         <v>45963</v>
       </c>
-      <c r="H51" s="121">
+      <c r="H51" s="120">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="I51" s="80"/>
+      <c r="I51" s="139" t="s">
+        <v>109</v>
+      </c>
     </row>
-    <row r="52" spans="2:9" s="6" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:9" s="6" customFormat="1" ht="26.4" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B52" s="72">
         <v>8.3000000000000007</v>
       </c>
@@ -6279,7 +6259,7 @@
         <v>60</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E52" s="10"/>
       <c r="F52" s="33">
@@ -6288,34 +6268,36 @@
       <c r="G52" s="34">
         <v>45964</v>
       </c>
-      <c r="H52" s="121">
+      <c r="H52" s="120">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="I52" s="80"/>
+      <c r="I52" s="139" t="s">
+        <v>110</v>
+      </c>
     </row>
-    <row r="53" spans="2:9" s="6" customFormat="1" ht="17.25" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="122">
+    <row r="53" spans="2:9" s="6" customFormat="1" ht="15" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B53" s="121">
         <v>9</v>
       </c>
-      <c r="C53" s="123" t="s">
+      <c r="C53" s="122" t="s">
         <v>61</v>
       </c>
-      <c r="D53" s="124"/>
-      <c r="E53" s="125"/>
-      <c r="F53" s="138">
+      <c r="D53" s="123"/>
+      <c r="E53" s="124"/>
+      <c r="F53" s="135">
         <v>45961</v>
       </c>
-      <c r="G53" s="126">
+      <c r="G53" s="125">
         <v>45967</v>
       </c>
-      <c r="H53" s="127">
+      <c r="H53" s="126">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="I53" s="128"/>
+      <c r="I53" s="142"/>
     </row>
-    <row r="54" spans="2:9" s="6" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:9" s="6" customFormat="1" ht="13.8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B54" s="72">
         <v>9.1</v>
       </c>
@@ -6323,7 +6305,7 @@
         <v>62</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E54" s="10"/>
       <c r="F54" s="33">
@@ -6332,13 +6314,15 @@
       <c r="G54" s="34">
         <v>45965</v>
       </c>
-      <c r="H54" s="129">
+      <c r="H54" s="127">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="I54" s="80"/>
+      <c r="I54" s="139" t="s">
+        <v>111</v>
+      </c>
     </row>
-    <row r="55" spans="2:9" s="6" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:9" s="6" customFormat="1" ht="13.8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B55" s="72">
         <v>9.1999999999999993</v>
       </c>
@@ -6346,7 +6330,7 @@
         <v>63</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E55" s="10"/>
       <c r="F55" s="33">
@@ -6355,13 +6339,15 @@
       <c r="G55" s="34">
         <v>45966</v>
       </c>
-      <c r="H55" s="129">
+      <c r="H55" s="127">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="I55" s="80"/>
+      <c r="I55" s="139" t="s">
+        <v>112</v>
+      </c>
     </row>
-    <row r="56" spans="2:9" s="6" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:9" s="6" customFormat="1" ht="13.8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B56" s="83">
         <v>9.3000000000000007</v>
       </c>
@@ -6369,79 +6355,81 @@
         <v>64</v>
       </c>
       <c r="D56" s="85" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E56" s="86"/>
       <c r="F56" s="33">
         <v>45965</v>
       </c>
-      <c r="G56" s="106">
+      <c r="G56" s="105">
         <v>45967</v>
       </c>
-      <c r="H56" s="130">
+      <c r="H56" s="128">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="I56" s="87"/>
+      <c r="I56" s="143" t="s">
+        <v>113</v>
+      </c>
     </row>
-    <row r="57" spans="2:9" s="6" customFormat="1" ht="24.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:9" s="6" customFormat="1" ht="24.9" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B57" s="7"/>
       <c r="C57" s="48"/>
       <c r="D57" s="49"/>
       <c r="E57" s="50"/>
       <c r="F57" s="51"/>
       <c r="G57" s="52"/>
-      <c r="H57" s="88"/>
+      <c r="H57" s="87"/>
       <c r="I57" s="7"/>
     </row>
-    <row r="58" spans="2:9" s="6" customFormat="1" ht="24.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:9" s="6" customFormat="1" ht="24.9" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B58" s="7"/>
       <c r="C58" s="48"/>
       <c r="D58" s="49"/>
       <c r="E58" s="50"/>
       <c r="F58" s="51"/>
       <c r="G58" s="52"/>
-      <c r="H58" s="88"/>
+      <c r="H58" s="87"/>
       <c r="I58" s="7"/>
     </row>
-    <row r="59" spans="2:9" s="6" customFormat="1" ht="24.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:9" s="6" customFormat="1" ht="24.9" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B59" s="7"/>
       <c r="C59" s="48"/>
       <c r="D59" s="49"/>
       <c r="E59" s="50"/>
       <c r="F59" s="51"/>
       <c r="G59" s="52"/>
-      <c r="H59" s="88"/>
+      <c r="H59" s="87"/>
       <c r="I59" s="7"/>
     </row>
-    <row r="60" spans="2:9" s="6" customFormat="1" ht="24.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:9" s="6" customFormat="1" ht="24.9" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B60" s="7"/>
       <c r="C60" s="48"/>
       <c r="D60" s="49"/>
       <c r="E60" s="50"/>
       <c r="F60" s="51"/>
       <c r="G60" s="52"/>
-      <c r="H60" s="88"/>
+      <c r="H60" s="87"/>
       <c r="I60" s="7"/>
     </row>
-    <row r="61" spans="2:9" s="6" customFormat="1" ht="24.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:9" s="6" customFormat="1" ht="24.9" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B61" s="7"/>
       <c r="C61" s="48"/>
       <c r="D61" s="49"/>
       <c r="E61" s="50"/>
       <c r="F61" s="51"/>
       <c r="G61" s="52"/>
-      <c r="H61" s="88"/>
+      <c r="H61" s="87"/>
       <c r="I61" s="7"/>
     </row>
-    <row r="62" spans="2:9" s="6" customFormat="1" ht="24.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:9" s="6" customFormat="1" ht="24.9" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B62" s="7"/>
       <c r="C62" s="48"/>
       <c r="D62" s="49"/>
       <c r="E62" s="50"/>
       <c r="F62" s="51"/>
       <c r="G62" s="52"/>
-      <c r="H62" s="88"/>
+      <c r="H62" s="87"/>
       <c r="I62" s="7"/>
     </row>
     <row r="63" spans="2:9" ht="300" customHeight="1" x14ac:dyDescent="0.25">
@@ -6467,30 +6455,30 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="D8:D62">
-    <cfRule type="containsText" dxfId="25" priority="1" operator="containsText" text="On Hold">
+    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="On Hold">
       <formula>NOT(ISERROR(SEARCH("On Hold",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="2" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="6" priority="2" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="23" priority="3" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="4" operator="containsText" text="Not Started">
+    <cfRule type="containsText" dxfId="4" priority="4" operator="containsText" text="Not Started">
       <formula>NOT(ISERROR(SEARCH("Not Started",D8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8:K12">
-    <cfRule type="containsText" dxfId="21" priority="13" stopIfTrue="1" operator="containsText" text="On Hold">
+    <cfRule type="containsText" dxfId="3" priority="13" stopIfTrue="1" operator="containsText" text="On Hold">
       <formula>NOT(ISERROR(SEARCH("On Hold",K8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="14" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="2" priority="14" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",K8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="15" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="1" priority="15" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",K8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="16" operator="containsText" text="Not Started">
+    <cfRule type="containsText" dxfId="0" priority="16" operator="containsText" text="Not Started">
       <formula>NOT(ISERROR(SEARCH("Not Started",K8)))</formula>
     </cfRule>
   </conditionalFormatting>
